--- a/Web/HTML_Table_Filter/table.xlsx
+++ b/Web/HTML_Table_Filter/table.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewkudija/Documents/GitHub/General-Examples/Web/HTML_Table_Filter/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{303BF008-F0FC-514B-82A6-C0389CAC00B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="460" windowWidth="21600" windowHeight="17460"/>
+    <workbookView xWindow="3100" yWindow="3240" windowWidth="18640" windowHeight="11480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$45</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -341,8 +345,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -354,6 +358,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -380,10 +392,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -698,43 +713,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -757,11 +774,11 @@
         <v>108</v>
       </c>
       <c r="H2">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <f t="shared" ref="H2:H45" ca="1" si="0">ROUND(NORMINV(RAND(),100,25),0)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -784,11 +801,11 @@
         <v>194</v>
       </c>
       <c r="H3">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -811,11 +828,11 @@
         <v>161</v>
       </c>
       <c r="H4">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -838,11 +855,11 @@
         <v>124</v>
       </c>
       <c r="H5">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -865,11 +882,11 @@
         <v>242</v>
       </c>
       <c r="H6">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -892,11 +909,11 @@
         <v>156</v>
       </c>
       <c r="H7">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -919,11 +936,11 @@
         <v>218</v>
       </c>
       <c r="H8">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -946,11 +963,11 @@
         <v>218</v>
       </c>
       <c r="H9">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -973,11 +990,11 @@
         <v>109</v>
       </c>
       <c r="H10">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1000,11 +1017,11 @@
         <v>197</v>
       </c>
       <c r="H11">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -1027,11 +1044,11 @@
         <v>136</v>
       </c>
       <c r="H12">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -1054,11 +1071,11 @@
         <v>214</v>
       </c>
       <c r="H13">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -1081,11 +1098,11 @@
         <v>196</v>
       </c>
       <c r="H14">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -1108,11 +1125,11 @@
         <v>170</v>
       </c>
       <c r="H15">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -1135,11 +1152,11 @@
         <v>140</v>
       </c>
       <c r="H16">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -1162,11 +1179,11 @@
         <v>199</v>
       </c>
       <c r="H17">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -1189,11 +1206,11 @@
         <v>112</v>
       </c>
       <c r="H18">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -1216,11 +1233,11 @@
         <v>80</v>
       </c>
       <c r="H19">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -1243,11 +1260,11 @@
         <v>112</v>
       </c>
       <c r="H20">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -1270,11 +1287,11 @@
         <v>229</v>
       </c>
       <c r="H21">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -1297,11 +1314,11 @@
         <v>185</v>
       </c>
       <c r="H22">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -1324,11 +1341,11 @@
         <v>131</v>
       </c>
       <c r="H23">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -1351,11 +1368,11 @@
         <v>80</v>
       </c>
       <c r="H24">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1378,11 +1395,11 @@
         <v>159</v>
       </c>
       <c r="H25">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -1405,11 +1422,11 @@
         <v>156</v>
       </c>
       <c r="H26">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -1432,11 +1449,11 @@
         <v>150</v>
       </c>
       <c r="H27">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -1459,11 +1476,11 @@
         <v>99</v>
       </c>
       <c r="H28">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -1486,11 +1503,11 @@
         <v>231</v>
       </c>
       <c r="H29">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -1513,11 +1530,11 @@
         <v>237</v>
       </c>
       <c r="H30">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -1540,11 +1557,11 @@
         <v>151</v>
       </c>
       <c r="H31">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -1567,11 +1584,11 @@
         <v>93</v>
       </c>
       <c r="H32">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -1594,11 +1611,11 @@
         <v>109</v>
       </c>
       <c r="H33">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -1621,11 +1638,11 @@
         <v>202</v>
       </c>
       <c r="H34">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -1648,11 +1665,11 @@
         <v>153</v>
       </c>
       <c r="H35">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -1675,11 +1692,11 @@
         <v>214</v>
       </c>
       <c r="H36">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -1702,11 +1719,11 @@
         <v>131</v>
       </c>
       <c r="H37">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -1729,11 +1746,11 @@
         <v>229</v>
       </c>
       <c r="H38">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -1756,11 +1773,11 @@
         <v>176</v>
       </c>
       <c r="H39">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -1783,11 +1800,11 @@
         <v>148</v>
       </c>
       <c r="H40">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -1810,11 +1827,11 @@
         <v>125</v>
       </c>
       <c r="H41">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -1837,11 +1854,11 @@
         <v>165</v>
       </c>
       <c r="H42">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -1864,11 +1881,11 @@
         <v>96</v>
       </c>
       <c r="H43">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>80</v>
       </c>
@@ -1891,11 +1908,11 @@
         <v>190</v>
       </c>
       <c r="H44">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -1918,289 +1935,290 @@
         <v>92</v>
       </c>
       <c r="H45">
-        <f ca="1">ROUND(NORMINV(RAND(),100,25),0)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="8:8">
+    <row r="49" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="8:8">
+    <row r="50" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="8:8">
+    <row r="51" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="8:8">
+    <row r="52" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="8:8">
+    <row r="53" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="8:8">
+    <row r="54" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="8:8">
+    <row r="55" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="8:8">
+    <row r="56" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="8:8">
+    <row r="57" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="8:8">
+    <row r="58" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="8:8">
+    <row r="59" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="8:8">
+    <row r="60" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="8:8">
+    <row r="61" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="8:8">
+    <row r="62" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="8:8">
+    <row r="63" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="8:8">
+    <row r="64" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="8:8">
+    <row r="65" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="8:8">
+    <row r="66" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="8:8">
+    <row r="67" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="8:8">
+    <row r="68" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="8:8">
+    <row r="69" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="8:8">
+    <row r="70" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="8:8">
+    <row r="71" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="8:8">
+    <row r="72" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="8:8">
+    <row r="73" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="8:8">
+    <row r="74" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="8:8">
+    <row r="75" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="8:8">
+    <row r="76" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="8:8">
+    <row r="77" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="8:8">
+    <row r="78" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="8:8">
+    <row r="79" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="8:8">
+    <row r="80" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="8:8">
+    <row r="81" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="8:8">
+    <row r="82" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="8:8">
+    <row r="83" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="8:8">
+    <row r="84" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="8:8">
+    <row r="85" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="8:8">
+    <row r="86" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="8:8">
+    <row r="87" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="8:8">
+    <row r="88" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="8:8">
+    <row r="89" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="8:8">
+    <row r="90" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="8:8">
+    <row r="91" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="8:8">
+    <row r="92" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="8:8">
+    <row r="93" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="8:8">
+    <row r="94" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="8:8">
+    <row r="95" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="8:8">
+    <row r="96" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="8:8">
+    <row r="97" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="8:8">
+    <row r="98" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="8:8">
+    <row r="99" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="8:8">
+    <row r="100" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="8:8">
+    <row r="101" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="8:8">
+    <row r="102" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="8:8">
+    <row r="103" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="8:8">
+    <row r="104" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="8:8">
+    <row r="105" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="8:8">
+    <row r="106" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="8:8">
+    <row r="107" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="8:8">
+    <row r="108" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="8:8">
+    <row r="109" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="8:8">
+    <row r="110" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="8:8">
+    <row r="111" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="8:8">
+    <row r="112" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="8:8">
+    <row r="113" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="8:8">
+    <row r="114" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="8:8">
+    <row r="115" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="8:8">
+    <row r="116" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="8:8">
+    <row r="117" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="8:8">
+    <row r="118" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="8:8">
+    <row r="119" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="8:8">
+    <row r="120" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="8:8">
+    <row r="121" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="8:8">
+    <row r="122" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="8:8">
+    <row r="123" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="8:8">
+    <row r="124" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="8:8">
+    <row r="125" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="8:8">
+    <row r="126" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="8:8">
+    <row r="127" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="8:8">
+    <row r="128" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="8:8">
+    <row r="129" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="8:8">
+    <row r="130" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H130" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H45" xr:uid="{B9B1B0D8-2179-644E-BCB4-706FE74017DC}"/>
   <hyperlinks>
-    <hyperlink ref="B42" r:id="rId1" display="https://www.babycenter.com/baby-names-sophia-4200.htm"/>
-    <hyperlink ref="B37" r:id="rId2" display="https://www.babycenter.com/baby-names-emma-1552.htm"/>
-    <hyperlink ref="B11" r:id="rId3" display="https://www.babycenter.com/baby-names-olivia-3504.htm"/>
-    <hyperlink ref="B2" r:id="rId4" display="https://www.babycenter.com/baby-names-ava-450.htm"/>
-    <hyperlink ref="B33" r:id="rId5" display="https://www.babycenter.com/baby-names-mia-3191.htm"/>
-    <hyperlink ref="B28" r:id="rId6" display="https://www.babycenter.com/baby-names-isabella-4891.htm"/>
-    <hyperlink ref="B16" r:id="rId7" display="https://www.babycenter.com/baby-names-riley-5295.htm"/>
-    <hyperlink ref="B38" r:id="rId8" display="https://www.babycenter.com/baby-names-aria-358.htm"/>
-    <hyperlink ref="B35" r:id="rId9" display="https://www.babycenter.com/baby-names-zoe-4854.htm"/>
-    <hyperlink ref="B23" r:id="rId10" display="https://www.babycenter.com/baby-names-charlotte-954.htm"/>
-    <hyperlink ref="B21" r:id="rId11" display="https://www.babycenter.com/baby-names-lily-2837.htm"/>
-    <hyperlink ref="B44" r:id="rId12" display="https://www.babycenter.com/baby-names-layla-5615.htm"/>
-    <hyperlink ref="B5" r:id="rId13" display="https://www.babycenter.com/baby-names-amelia-252.htm"/>
-    <hyperlink ref="B24" r:id="rId14" display="https://www.babycenter.com/baby-names-emily-1551.htm"/>
-    <hyperlink ref="B7" r:id="rId15" display="https://www.babycenter.com/baby-names-madelyn-5385.htm"/>
-    <hyperlink ref="B17" r:id="rId16" display="https://www.babycenter.com/baby-names-aubrey-5465.htm"/>
-    <hyperlink ref="B30" r:id="rId17" display="https://www.babycenter.com/baby-names-adalyn-11185.htm"/>
-    <hyperlink ref="B45" r:id="rId18" display="https://www.babycenter.com/baby-names-madison-5175.htm"/>
-    <hyperlink ref="B13" r:id="rId19" display="https://www.babycenter.com/baby-names-chloe-1001.htm"/>
-    <hyperlink ref="B22" r:id="rId20" display="https://www.babycenter.com/baby-names-harper-7165.htm"/>
-    <hyperlink ref="B41" r:id="rId21" display="https://www.babycenter.com/baby-names-abigail-15.htm"/>
-    <hyperlink ref="B3" r:id="rId22" display="https://www.babycenter.com/baby-names-aaliyah-5595.htm"/>
+    <hyperlink ref="B42" r:id="rId1" display="https://www.babycenter.com/baby-names-sophia-4200.htm" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B37" r:id="rId2" display="https://www.babycenter.com/baby-names-emma-1552.htm" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B11" r:id="rId3" display="https://www.babycenter.com/baby-names-olivia-3504.htm" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" display="https://www.babycenter.com/baby-names-ava-450.htm" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B33" r:id="rId5" display="https://www.babycenter.com/baby-names-mia-3191.htm" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B28" r:id="rId6" display="https://www.babycenter.com/baby-names-isabella-4891.htm" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B16" r:id="rId7" display="https://www.babycenter.com/baby-names-riley-5295.htm" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B38" r:id="rId8" display="https://www.babycenter.com/baby-names-aria-358.htm" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B35" r:id="rId9" display="https://www.babycenter.com/baby-names-zoe-4854.htm" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B23" r:id="rId10" display="https://www.babycenter.com/baby-names-charlotte-954.htm" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B21" r:id="rId11" display="https://www.babycenter.com/baby-names-lily-2837.htm" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B44" r:id="rId12" display="https://www.babycenter.com/baby-names-layla-5615.htm" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B5" r:id="rId13" display="https://www.babycenter.com/baby-names-amelia-252.htm" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B24" r:id="rId14" display="https://www.babycenter.com/baby-names-emily-1551.htm" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B7" r:id="rId15" display="https://www.babycenter.com/baby-names-madelyn-5385.htm" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" display="https://www.babycenter.com/baby-names-aubrey-5465.htm" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B30" r:id="rId17" display="https://www.babycenter.com/baby-names-adalyn-11185.htm" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B45" r:id="rId18" display="https://www.babycenter.com/baby-names-madison-5175.htm" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B13" r:id="rId19" display="https://www.babycenter.com/baby-names-chloe-1001.htm" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B22" r:id="rId20" display="https://www.babycenter.com/baby-names-harper-7165.htm" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B41" r:id="rId21" display="https://www.babycenter.com/baby-names-abigail-15.htm" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B3" r:id="rId22" display="https://www.babycenter.com/baby-names-aaliyah-5595.htm" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
